--- a/deployment/Omaha_Cal_Info_RS03ASHS.xlsx
+++ b/deployment/Omaha_Cal_Info_RS03ASHS.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10320"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Moorings" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Asset_Cal_Info" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="IntegrationEvents" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Verification" sheetId="4" r:id="rId6"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
+    <sheet name="IntegrationEvents" sheetId="3" r:id="rId3"/>
+    <sheet name="Verification" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,28 +27,56 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A9">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">changed to match bulk load
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>changed from ATAPL-58343-00002 to match bulk upload value for matching serial number
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A12">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">changed to match bulk load
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>removed port suffix
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A8">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">changed from ATAPL-58343-00002 to match bulk upload value for matching serial number
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>changed to match bulk load
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B8">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">removed port suffix
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>changed to match bulk load
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,18 +89,32 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D3">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">should have two deployments, but only has first (same serial number for both)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>without data in the system, the name does not get mapped in the UI
+	-Dan Mergens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>should have two deployments, but only has first (same serial number for both)
 	-Dan Mergens
 not a big deal - osmoi doesn't have data in the system anyway
 	-Dan Mergens</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3">
-      <text>
-        <t xml:space="preserve">without data in the system, the name does not get mapped in the UI
-	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -72,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -304,55 +354,69 @@
   <si>
     <t xml:space="preserve">   </t>
   </si>
+  <si>
+    <t>RS03ASHS-PN03B-H6-CAMHDA301</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="167" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="166" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -360,7 +424,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -393,6 +457,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -405,6 +470,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -413,6 +479,7 @@
         <color rgb="FFB2A1C7"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -423,298 +490,638 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
-    <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="3" width="21.86"/>
-    <col customWidth="1" min="4" max="4" width="12.29"/>
-    <col customWidth="1" min="5" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="9" width="14.43"/>
-    <col customWidth="1" min="10" max="10" width="11.43"/>
-    <col customWidth="1" min="11" max="11" width="12.43"/>
-    <col customWidth="1" min="12" max="12" width="39.71"/>
-    <col customWidth="1" min="13" max="13" width="12.0"/>
-    <col customWidth="1" min="14" max="14" width="12.71"/>
-    <col customWidth="1" min="15" max="26" width="14.43"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +1173,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -777,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="9">
-        <v>42194.0</v>
+        <v>42194</v>
       </c>
       <c r="F2" s="10">
-        <v>0.5613888888888889</v>
+        <v>0.56138888888888894</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
@@ -793,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="J2" s="11">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="13" t="str">
-        <f t="shared" ref="M2:M3" si="1">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
-        <v>45.93364333</v>
-      </c>
-      <c r="N2" s="13" t="str">
-        <f t="shared" ref="N2:N3" si="2">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
-        <v>-130.0136417</v>
+      <c r="M2" s="13">
+        <f t="shared" ref="M2:M3" si="0">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>45.933643333333336</v>
+      </c>
+      <c r="N2" s="13">
+        <f t="shared" ref="N2:N3" si="1">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-130.01364166666667</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -820,24 +1227,24 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
+      <c r="B3" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="C3" s="15">
-        <v>12096.0</v>
+        <v>12096</v>
       </c>
       <c r="D3" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="17">
-        <v>41487.0</v>
+        <v>41487</v>
       </c>
       <c r="F3" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="20" t="s">
@@ -847,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="16">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>22</v>
@@ -855,13 +1262,13 @@
       <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="13" t="str">
+      <c r="M3" s="13">
+        <f t="shared" si="0"/>
+        <v>45.933619999999998</v>
+      </c>
+      <c r="N3" s="13">
         <f t="shared" si="1"/>
-        <v>45.93362</v>
-      </c>
-      <c r="N3" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>-130.01364</v>
+        <v>-130.01364000000001</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -876,7 +1283,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="30.0" customHeight="1">
+    <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
@@ -904,7 +1311,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
@@ -915,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="24">
-        <v>42194.0</v>
+        <v>42194</v>
       </c>
       <c r="F5" s="25">
-        <v>0.5613888888888889</v>
+        <v>0.56138888888888894</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
@@ -931,19 +1338,19 @@
         <v>16</v>
       </c>
       <c r="J5" s="23">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="27"/>
-      <c r="M5" s="13" t="str">
-        <f t="shared" ref="M5:M6" si="3">((LEFT(H5,(FIND("°",H5,1)-1)))+(MID(H5,(FIND("°",H5,1)+1),(FIND("'",H5,1))-(FIND("°",H5,1)+1))/60))*(IF(RIGHT(H5,1)="N",1,-1))</f>
-        <v>45.93364333</v>
-      </c>
-      <c r="N5" s="13" t="str">
-        <f t="shared" ref="N5:N6" si="4">((LEFT(I5,(FIND("°",I5,1)-1)))+(MID(I5,(FIND("°",I5,1)+1),(FIND("'",I5,1))-(FIND("°",I5,1)+1))/60))*(IF(RIGHT(I5,1)="E",1,-1))</f>
-        <v>-130.0136417</v>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5:M6" si="2">((LEFT(H5,(FIND("°",H5,1)-1)))+(MID(H5,(FIND("°",H5,1)+1),(FIND("'",H5,1))-(FIND("°",H5,1)+1))/60))*(IF(RIGHT(H5,1)="N",1,-1))</f>
+        <v>45.933643333333336</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N6" si="3">((LEFT(I5,(FIND("°",I5,1)-1)))+(MID(I5,(FIND("°",I5,1)+1),(FIND("'",I5,1))-(FIND("°",I5,1)+1))/60))*(IF(RIGHT(I5,1)="E",1,-1))</f>
+        <v>-130.01364166666667</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -958,24 +1365,24 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" ht="30.0" customHeight="1">
+    <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C6" s="30">
-        <v>13114.0</v>
+        <v>13114</v>
       </c>
       <c r="D6" s="16">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="24">
-        <v>42194.0</v>
+        <v>42194</v>
       </c>
       <c r="F6" s="25">
-        <v>0.5613888888888889</v>
+        <v>0.56138888888888894</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="26" t="s">
@@ -985,19 +1392,19 @@
         <v>16</v>
       </c>
       <c r="J6" s="32">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
+        <v>45.933643333333336</v>
+      </c>
+      <c r="N6" s="13">
         <f t="shared" si="3"/>
-        <v>45.93364333</v>
-      </c>
-      <c r="N6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>-130.0136417</v>
+        <v>-130.01364166666667</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1012,7 +1419,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="30.0" customHeight="1">
+    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="29"/>
       <c r="C7" s="11"/>
@@ -1040,7 +1447,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -1051,10 +1458,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="24">
-        <v>41848.0</v>
+        <v>41848</v>
       </c>
       <c r="F8" s="25">
         <v>0.37777777777777777</v>
@@ -1067,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="J8" s="23">
-        <v>1541.0</v>
+        <v>1541</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="13" t="str">
-        <f t="shared" ref="M8:M12" si="5">((LEFT(H8,(FIND("°",H8,1)-1)))+(MID(H8,(FIND("°",H8,1)+1),(FIND("'",H8,1))-(FIND("°",H8,1)+1))/60))*(IF(RIGHT(H8,1)="N",1,-1))</f>
-        <v>45.93373</v>
-      </c>
-      <c r="N8" s="13" t="str">
-        <f t="shared" ref="N8:N12" si="6">((LEFT(I8,(FIND("°",I8,1)-1)))+(MID(I8,(FIND("°",I8,1)+1),(FIND("'",I8,1))-(FIND("°",I8,1)+1))/60))*(IF(RIGHT(I8,1)="E",1,-1))</f>
-        <v>-130.01391</v>
+      <c r="M8" s="13">
+        <f t="shared" ref="M8:M12" si="4">((LEFT(H8,(FIND("°",H8,1)-1)))+(MID(H8,(FIND("°",H8,1)+1),(FIND("'",H8,1))-(FIND("°",H8,1)+1))/60))*(IF(RIGHT(H8,1)="N",1,-1))</f>
+        <v>45.933729999999997</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" ref="N8:N12" si="5">((LEFT(I8,(FIND("°",I8,1)-1)))+(MID(I8,(FIND("°",I8,1)+1),(FIND("'",I8,1))-(FIND("°",I8,1)+1))/60))*(IF(RIGHT(I8,1)="E",1,-1))</f>
+        <v>-130.01391000000001</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1094,7 +1501,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>31</v>
       </c>
@@ -1102,13 +1509,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="24">
-        <v>41910.0</v>
+        <v>41910</v>
       </c>
       <c r="F9" s="25">
         <v>0.16805555555555557</v>
@@ -1121,19 +1528,19 @@
         <v>34</v>
       </c>
       <c r="J9" s="23">
-        <v>1541.0</v>
+        <v>1541</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="13" t="str">
+      <c r="M9" s="13">
+        <f t="shared" si="4"/>
+        <v>45.933630000000001</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="5"/>
-        <v>45.93363</v>
-      </c>
-      <c r="N9" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>-130.01368</v>
+        <v>-130.01367999999999</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1148,7 +1555,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -1159,13 +1566,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="24">
-        <v>41497.0</v>
+        <v>41497</v>
       </c>
       <c r="F10" s="25">
-        <v>0.5777777777777777</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="26" t="s">
@@ -1175,19 +1582,19 @@
         <v>38</v>
       </c>
       <c r="J10" s="23">
-        <v>1545.0</v>
+        <v>1545</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="13" t="str">
+      <c r="M10" s="13">
+        <f t="shared" si="4"/>
+        <v>45.933729999999997</v>
+      </c>
+      <c r="N10" s="13">
         <f t="shared" si="5"/>
-        <v>45.93373</v>
-      </c>
-      <c r="N10" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>-130.0141</v>
+        <v>-130.01410000000001</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1202,7 +1609,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
@@ -1213,13 +1620,13 @@
         <v>41</v>
       </c>
       <c r="D11" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="24">
-        <v>41501.0</v>
+        <v>41501</v>
       </c>
       <c r="F11" s="25">
-        <v>0.6513888888888889</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="26" t="s">
@@ -1229,19 +1636,19 @@
         <v>43</v>
       </c>
       <c r="J11" s="23">
-        <v>1534.0</v>
+        <v>1534</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="13" t="str">
+      <c r="M11" s="13">
+        <f t="shared" si="4"/>
+        <v>45.93356</v>
+      </c>
+      <c r="N11" s="13">
         <f t="shared" si="5"/>
-        <v>45.93356</v>
-      </c>
-      <c r="N11" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>-129.99924</v>
+        <v>-129.99923999999999</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1256,7 +1663,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>44</v>
       </c>
@@ -1264,16 +1671,16 @@
         <v>45</v>
       </c>
       <c r="C12" s="23">
-        <v>21969.0</v>
+        <v>21969</v>
       </c>
       <c r="D12" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="24">
-        <v>41910.0</v>
+        <v>41910</v>
       </c>
       <c r="F12" s="25">
-        <v>0.09791666666666667</v>
+        <v>9.7916666666666666E-2</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="26" t="s">
@@ -1283,19 +1690,19 @@
         <v>34</v>
       </c>
       <c r="J12" s="23">
-        <v>1540.0</v>
+        <v>1540</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="13" t="str">
+      <c r="M12" s="13">
+        <f t="shared" si="4"/>
+        <v>45.933619999999998</v>
+      </c>
+      <c r="N12" s="13">
         <f t="shared" si="5"/>
-        <v>45.93362</v>
-      </c>
-      <c r="N12" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>-130.01368</v>
+        <v>-130.01367999999999</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1310,7 +1717,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -1338,7 +1745,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1349,10 +1756,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="24">
-        <v>41848.0</v>
+        <v>41848</v>
       </c>
       <c r="F14" s="25">
         <v>0.37777777777777777</v>
@@ -1365,19 +1772,19 @@
         <v>30</v>
       </c>
       <c r="J14" s="23">
-        <v>1541.0</v>
+        <v>1541</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="13" t="str">
-        <f t="shared" ref="M14:M15" si="7">((LEFT(H14,(FIND("°",H14,1)-1)))+(MID(H14,(FIND("°",H14,1)+1),(FIND("'",H14,1))-(FIND("°",H14,1)+1))/60))*(IF(RIGHT(H14,1)="N",1,-1))</f>
-        <v>45.93373</v>
-      </c>
-      <c r="N14" s="13" t="str">
-        <f t="shared" ref="N14:N15" si="8">((LEFT(I14,(FIND("°",I14,1)-1)))+(MID(I14,(FIND("°",I14,1)+1),(FIND("'",I14,1))-(FIND("°",I14,1)+1))/60))*(IF(RIGHT(I14,1)="E",1,-1))</f>
-        <v>-130.01391</v>
+      <c r="M14" s="13">
+        <f t="shared" ref="M14:M15" si="6">((LEFT(H14,(FIND("°",H14,1)-1)))+(MID(H14,(FIND("°",H14,1)+1),(FIND("'",H14,1))-(FIND("°",H14,1)+1))/60))*(IF(RIGHT(H14,1)="N",1,-1))</f>
+        <v>45.933729999999997</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" ref="N14:N15" si="7">((LEFT(I14,(FIND("°",I14,1)-1)))+(MID(I14,(FIND("°",I14,1)+1),(FIND("'",I14,1))-(FIND("°",I14,1)+1))/60))*(IF(RIGHT(I14,1)="E",1,-1))</f>
+        <v>-130.01391000000001</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1392,7 +1799,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -1400,16 +1807,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="24">
-        <v>42194.0</v>
+        <v>42194</v>
       </c>
       <c r="F15" s="25">
-        <v>0.5222222222222223</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="26" t="s">
@@ -1419,19 +1826,19 @@
         <v>48</v>
       </c>
       <c r="J15" s="23">
-        <v>1541.0</v>
+        <v>1541</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="13" t="str">
+      <c r="M15" s="13">
+        <f t="shared" si="6"/>
+        <v>45.933666666666667</v>
+      </c>
+      <c r="N15" s="13">
         <f t="shared" si="7"/>
-        <v>45.93366667</v>
-      </c>
-      <c r="N15" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>-130.0136883</v>
+        <v>-130.01368833333333</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1446,7 +1853,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
@@ -1475,33 +1882,35 @@
       <c r="Z16" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.14"/>
-    <col customWidth="1" min="2" max="2" width="21.71"/>
-    <col customWidth="1" min="3" max="3" width="22.43"/>
-    <col customWidth="1" min="4" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="8" width="25.29"/>
-    <col customWidth="1" min="9" max="9" width="25.43"/>
-    <col customWidth="1" min="10" max="26" width="14.43"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,23 +1956,23 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="C2" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="F2" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="G2" s="46"/>
@@ -1587,27 +1996,27 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="49"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B3" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"N00356")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"N00356")</f>
         <v>N00356</v>
       </c>
       <c r="C3" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"RS03ASHS-ID03A-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"RS03ASHS-ID03A-00001")</f>
         <v>RS03ASHS-ID03A-00001</v>
       </c>
       <c r="D3" s="51">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-70168-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-70168-00001")</f>
         <v>ATAPL-70168-00001</v>
       </c>
       <c r="F3" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"12096")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"12096")</f>
         <v>12096</v>
       </c>
       <c r="G3" s="52"/>
@@ -1633,27 +2042,27 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B4" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"N00356")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"N00356")</f>
         <v>N00356</v>
       </c>
       <c r="C4" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"RS03ASHS-ID03A-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"RS03ASHS-ID03A-00001")</f>
         <v>RS03ASHS-ID03A-00001</v>
       </c>
       <c r="D4" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-70168-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-70168-00002")</f>
         <v>ATAPL-70168-00002</v>
       </c>
       <c r="F4" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"13114")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"13114")</f>
         <v>13114</v>
       </c>
       <c r="G4" s="52"/>
@@ -1677,23 +2086,23 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="C5" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="F5" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="G5" s="52"/>
@@ -1717,27 +2126,27 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-65244-820-0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-65244-820-0033")</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="C6" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0033")</f>
         <v>SN0033</v>
       </c>
       <c r="D6" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58333-00003")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58333-00003")</f>
         <v>ATAPL-58333-00003</v>
       </c>
       <c r="F6" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"4")</f>
         <v>4</v>
       </c>
       <c r="G6" s="52"/>
@@ -1761,27 +2170,27 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-65244-820-0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-65244-820-0033")</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="C7" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0033")</f>
         <v>SN0033</v>
       </c>
       <c r="D7" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58331-00008")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58331-00008")</f>
         <v>ATAPL-58331-00008</v>
       </c>
       <c r="F7" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"T6J74")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"T6J74")</f>
         <v>T6J74</v>
       </c>
       <c r="G7" s="52"/>
@@ -1805,27 +2214,27 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-65244-820-0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-65244-820-0033")</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="C8" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0033")</f>
         <v>SN0033</v>
       </c>
       <c r="D8" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-58331-00010")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-58331-00010")</f>
         <v>ATAPL-58331-00010</v>
       </c>
       <c r="F8" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"T6J76")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"T6J76")</f>
         <v>T6J76</v>
       </c>
       <c r="G8" s="52"/>
@@ -1849,27 +2258,27 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"ATAPL-65244-820-0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"ATAPL-65244-820-0033")</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="C9" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"SN0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"SN0033")</f>
         <v>SN0033</v>
       </c>
       <c r="D9" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"ATAPL-69971-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"ATAPL-69971-00002")</f>
         <v>ATAPL-69971-00002</v>
       </c>
       <c r="F9" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"21969")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"21969")</f>
         <v>21969</v>
       </c>
       <c r="G9" s="52"/>
@@ -1893,23 +2302,23 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="C10" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="F10" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="G10" s="52"/>
@@ -1933,27 +2342,27 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"ATAPL-65244-820-0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"ATAPL-65244-820-0033")</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="C11" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"SN0033")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"SN0033")</f>
         <v>SN0033</v>
       </c>
       <c r="D11" s="56">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"ATAPL-58333-00004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"ATAPL-58333-00004")</f>
         <v>ATAPL-58333-00004</v>
       </c>
       <c r="F11" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"4")</f>
         <v>4</v>
       </c>
       <c r="G11" s="52"/>
@@ -1977,23 +2386,23 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="C12" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="F12" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="G12" s="52"/>
@@ -2017,23 +2426,23 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="C13" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="F13" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="G13" s="52"/>
@@ -2057,23 +2466,23 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="C14" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="F14" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="G14" s="52"/>
@@ -2097,23 +2506,23 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="C15" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=A15,Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=A15,Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="F15" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=A15,Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=A15,Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="G15" s="52"/>
@@ -2137,23 +2546,23 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"")</f>
         <v/>
       </c>
       <c r="C16" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"")</f>
         <v/>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=A16,Moorings!D:D=D16))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=A16,Moorings!D:D=D16))"),"")</f>
         <v/>
       </c>
       <c r="F16" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=A16,Moorings!D:D=D16))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=A16,Moorings!D:D=D16))"),"")</f>
         <v/>
       </c>
       <c r="G16" s="52"/>
@@ -2177,23 +2586,23 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"")</f>
         <v/>
       </c>
       <c r="C17" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"")</f>
         <v/>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=A17,Moorings!D:D=D17))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=A17,Moorings!D:D=D17))"),"")</f>
         <v/>
       </c>
       <c r="F17" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=A17,Moorings!D:D=D17))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=A17,Moorings!D:D=D17))"),"")</f>
         <v/>
       </c>
       <c r="G17" s="52"/>
@@ -2217,23 +2626,23 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"")</f>
         <v/>
       </c>
       <c r="C18" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"")</f>
         <v/>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=A18,Moorings!D:D=D18))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=A18,Moorings!D:D=D18))"),"")</f>
         <v/>
       </c>
       <c r="F18" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=A18,Moorings!D:D=D18))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=A18,Moorings!D:D=D18))"),"")</f>
         <v/>
       </c>
       <c r="G18" s="52"/>
@@ -2257,23 +2666,23 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"")</f>
         <v/>
       </c>
       <c r="C19" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"")</f>
         <v/>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=A19,Moorings!D:D=D19))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=A19,Moorings!D:D=D19))"),"")</f>
         <v/>
       </c>
       <c r="F19" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=A19,Moorings!D:D=D19))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=A19,Moorings!D:D=D19))"),"")</f>
         <v/>
       </c>
       <c r="G19" s="52"/>
@@ -2298,30 +2707,31 @@
       <c r="Z19" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="3" width="31.57"/>
-    <col customWidth="1" min="4" max="4" width="9.86"/>
-    <col customWidth="1" min="5" max="5" width="20.86"/>
-    <col customWidth="1" min="6" max="6" width="9.86"/>
-    <col customWidth="1" min="7" max="7" width="11.43"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>55</v>
       </c>
@@ -2344,237 +2754,237 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="str">
         <f>Moorings!A2</f>
         <v>N00356</v>
       </c>
       <c r="B2" s="61" t="str">
-        <f>if(D2="Mooring",Moorings!B2,"")</f>
+        <f>IF(D2="Mooring",Moorings!B2,"")</f>
         <v>RS03ASHS-PN03B</v>
       </c>
       <c r="C2" s="62" t="str">
-        <f>if(D2="Sensor",Moorings!B2,"")</f>
+        <f>IF(D2="Sensor",Moorings!B2,"")</f>
         <v/>
       </c>
       <c r="D2" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B2),"",if(len(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B2),"",IF(LEN(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E2" s="45" t="str">
         <f>Moorings!C2</f>
         <v>RS03ASHS-ID03A-00001</v>
       </c>
-      <c r="F2" s="63" t="str">
-        <f>if(D2="Mooring",Moorings!E2,"")</f>
-        <v>7/9/2015</v>
+      <c r="F2" s="63">
+        <f>IF(D2="Mooring",Moorings!E2,"")</f>
+        <v>42194</v>
       </c>
       <c r="G2" s="62"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="str">
         <f>Moorings!A3</f>
         <v>ATAPL-70168-00001</v>
       </c>
       <c r="B3" s="61" t="str">
-        <f>if(D3="Mooring",Moorings!B3,"")</f>
+        <f>IF(D3="Mooring",Moorings!B3,"")</f>
         <v/>
       </c>
       <c r="C3" s="61" t="str">
-        <f>if(D3="Sensor",Moorings!B3,"")</f>
-        <v>RS03ASHS-PN03B-06-CAMHDA301</v>
+        <f>IF(D3="Sensor",Moorings!B3,"")</f>
+        <v>RS03ASHS-PN03B-H6-CAMHDA301</v>
       </c>
       <c r="D3" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B3),"",if(len(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B3),"",IF(LEN(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E3" s="45" t="str">
+      <c r="E3" s="45">
         <f>Moorings!C3</f>
         <v>12096</v>
       </c>
       <c r="F3" s="63" t="str">
-        <f>if(D3="Mooring",Moorings!E3,"")</f>
+        <f>IF(D3="Mooring",Moorings!E3,"")</f>
         <v/>
       </c>
       <c r="G3" s="62"/>
     </row>
-    <row r="4">
-      <c r="A4" s="61" t="str">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
         <f>Moorings!A4</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B4" s="61" t="str">
-        <f>if(D4="Mooring",Moorings!B4,"")</f>
+        <f>IF(D4="Mooring",Moorings!B4,"")</f>
         <v/>
       </c>
       <c r="C4" s="62" t="str">
-        <f>if(D4="Sensor",Moorings!B4,"")</f>
+        <f>IF(D4="Sensor",Moorings!B4,"")</f>
         <v/>
       </c>
       <c r="D4" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B4),"",if(len(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E4" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B4),"",IF(LEN(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E4" s="45">
         <f>Moorings!C4</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F4" s="63" t="str">
-        <f>if(D4="Mooring",Moorings!E4,"")</f>
+        <f>IF(D4="Mooring",Moorings!E4,"")</f>
         <v/>
       </c>
       <c r="G4" s="62"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="str">
         <f>Moorings!A5</f>
         <v>N00356</v>
       </c>
       <c r="B5" s="61" t="str">
-        <f>if(D5="Mooring",Moorings!B5,"")</f>
+        <f>IF(D5="Mooring",Moorings!B5,"")</f>
         <v>RS03ASHS-PN03B</v>
       </c>
       <c r="C5" s="62" t="str">
-        <f>if(D5="Sensor",Moorings!B5,"")</f>
+        <f>IF(D5="Sensor",Moorings!B5,"")</f>
         <v/>
       </c>
       <c r="D5" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B5),"",if(len(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B5),"",IF(LEN(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E5" s="45" t="str">
         <f>Moorings!C5</f>
         <v>RS03ASHS-ID03A-00001</v>
       </c>
-      <c r="F5" s="63" t="str">
-        <f>if(D5="Mooring",Moorings!E5,"")</f>
-        <v>7/9/2015</v>
+      <c r="F5" s="63">
+        <f>IF(D5="Mooring",Moorings!E5,"")</f>
+        <v>42194</v>
       </c>
       <c r="G5" s="62"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="str">
         <f>Moorings!A6</f>
         <v>ATAPL-70168-00002</v>
       </c>
       <c r="B6" s="61" t="str">
-        <f>if(D6="Mooring",Moorings!B6,"")</f>
+        <f>IF(D6="Mooring",Moorings!B6,"")</f>
         <v/>
       </c>
       <c r="C6" s="61" t="str">
-        <f>if(D6="Sensor",Moorings!B6,"")</f>
-        <v>RS03ASHS-PN03B-06-CAMHDA301</v>
+        <f>IF(D6="Sensor",Moorings!B6,"")</f>
+        <v>RS03ASHS-PN03B-H6-CAMHDA301</v>
       </c>
       <c r="D6" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B6),"",if(len(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B6),"",IF(LEN(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E6" s="45" t="str">
+      <c r="E6" s="45">
         <f>Moorings!C6</f>
         <v>13114</v>
       </c>
       <c r="F6" s="63" t="str">
-        <f>if(D6="Mooring",Moorings!E6,"")</f>
+        <f>IF(D6="Mooring",Moorings!E6,"")</f>
         <v/>
       </c>
       <c r="G6" s="62"/>
     </row>
-    <row r="7">
-      <c r="A7" s="61" t="str">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
         <f>Moorings!A7</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B7" s="61" t="str">
-        <f>if(D7="Mooring",Moorings!B7,"")</f>
+        <f>IF(D7="Mooring",Moorings!B7,"")</f>
         <v/>
       </c>
       <c r="C7" s="62" t="str">
-        <f>if(D7="Sensor",Moorings!B7,"")</f>
+        <f>IF(D7="Sensor",Moorings!B7,"")</f>
         <v/>
       </c>
       <c r="D7" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B7),"",if(len(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E7" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B7),"",IF(LEN(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E7" s="45">
         <f>Moorings!C7</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F7" s="63" t="str">
-        <f>if(D7="Mooring",Moorings!E7,"")</f>
+        <f>IF(D7="Mooring",Moorings!E7,"")</f>
         <v/>
       </c>
       <c r="G7" s="62"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="str">
         <f>Moorings!A8</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="B8" s="61" t="str">
-        <f>if(D8="Mooring",Moorings!B8,"")</f>
+        <f>IF(D8="Mooring",Moorings!B8,"")</f>
         <v>RS03ASHS-MJ03B</v>
       </c>
       <c r="C8" s="62" t="str">
-        <f>if(D8="Sensor",Moorings!B8,"")</f>
+        <f>IF(D8="Sensor",Moorings!B8,"")</f>
         <v/>
       </c>
       <c r="D8" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B8),"",if(len(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B8),"",IF(LEN(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E8" s="45" t="str">
         <f>Moorings!C8</f>
         <v>SN0033</v>
       </c>
-      <c r="F8" s="63" t="str">
-        <f>if(D8="Mooring",Moorings!E8,"")</f>
-        <v>7/28/2014</v>
+      <c r="F8" s="63">
+        <f>IF(D8="Mooring",Moorings!E8,"")</f>
+        <v>41848</v>
       </c>
       <c r="G8" s="62"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="str">
         <f>Moorings!A9</f>
         <v>ATAPL-58333-00003</v>
       </c>
       <c r="B9" s="61" t="str">
-        <f>if(D9="Mooring",Moorings!B9,"")</f>
+        <f>IF(D9="Mooring",Moorings!B9,"")</f>
         <v/>
       </c>
       <c r="C9" s="61" t="str">
-        <f>if(D9="Sensor",Moorings!B9,"")</f>
+        <f>IF(D9="Sensor",Moorings!B9,"")</f>
         <v>RS03ASHS-MJ03B-00-OSMOIA301</v>
       </c>
       <c r="D9" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B9),"",if(len(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B9),"",IF(LEN(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E9" s="45" t="str">
+      <c r="E9" s="45">
         <f>Moorings!C9</f>
         <v>4</v>
       </c>
       <c r="F9" s="63" t="str">
-        <f>if(D9="Mooring",Moorings!E9,"")</f>
+        <f>IF(D9="Mooring",Moorings!E9,"")</f>
         <v/>
       </c>
       <c r="G9" s="62"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="str">
         <f>Moorings!A10</f>
         <v>ATAPL-58331-00008</v>
       </c>
       <c r="B10" s="61" t="str">
-        <f>if(D10="Mooring",Moorings!B10,"")</f>
+        <f>IF(D10="Mooring",Moorings!B10,"")</f>
         <v/>
       </c>
       <c r="C10" s="61" t="str">
-        <f>if(D10="Sensor",Moorings!B10,"")</f>
+        <f>IF(D10="Sensor",Moorings!B10,"")</f>
         <v>RS03ASHS-MJ03B-05-OBSSPA302</v>
       </c>
       <c r="D10" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B10),"",if(len(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B10),"",IF(LEN(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E10" s="45" t="str">
@@ -2582,26 +2992,26 @@
         <v>T6J74</v>
       </c>
       <c r="F10" s="63" t="str">
-        <f>if(D10="Mooring",Moorings!E10,"")</f>
+        <f>IF(D10="Mooring",Moorings!E10,"")</f>
         <v/>
       </c>
       <c r="G10" s="62"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="str">
         <f>Moorings!A11</f>
         <v>ATAPL-58331-00010</v>
       </c>
       <c r="B11" s="61" t="str">
-        <f>if(D11="Mooring",Moorings!B11,"")</f>
+        <f>IF(D11="Mooring",Moorings!B11,"")</f>
         <v/>
       </c>
       <c r="C11" s="61" t="str">
-        <f>if(D11="Sensor",Moorings!B11,"")</f>
+        <f>IF(D11="Sensor",Moorings!B11,"")</f>
         <v>RS03ASHS-MJ03B-06-OBSSPA301</v>
       </c>
       <c r="D11" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B11),"",if(len(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B11),"",IF(LEN(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E11" s="45" t="str">
@@ -2609,983 +3019,984 @@
         <v>T6J76</v>
       </c>
       <c r="F11" s="63" t="str">
-        <f>if(D11="Mooring",Moorings!E11,"")</f>
+        <f>IF(D11="Mooring",Moorings!E11,"")</f>
         <v/>
       </c>
       <c r="G11" s="62"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="str">
         <f>Moorings!A12</f>
         <v>ATAPL-69971-00002</v>
       </c>
       <c r="B12" s="61" t="str">
-        <f>if(D12="Mooring",Moorings!B12,"")</f>
+        <f>IF(D12="Mooring",Moorings!B12,"")</f>
         <v/>
       </c>
       <c r="C12" s="61" t="str">
-        <f>if(D12="Sensor",Moorings!B12,"")</f>
+        <f>IF(D12="Sensor",Moorings!B12,"")</f>
         <v>RS03ASHS-MJ03B-07-TMPSFA301</v>
       </c>
       <c r="D12" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B12),"",if(len(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B12),"",IF(LEN(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E12" s="45" t="str">
+      <c r="E12" s="45">
         <f>Moorings!C12</f>
         <v>21969</v>
       </c>
       <c r="F12" s="63" t="str">
-        <f>if(D12="Mooring",Moorings!E12,"")</f>
+        <f>IF(D12="Mooring",Moorings!E12,"")</f>
         <v/>
       </c>
       <c r="G12" s="62"/>
     </row>
-    <row r="13">
-      <c r="A13" s="61" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="61">
         <f>Moorings!A13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B13" s="61" t="str">
-        <f>if(D13="Mooring",Moorings!B13,"")</f>
+        <f>IF(D13="Mooring",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="C13" s="62" t="str">
-        <f>if(D13="Sensor",Moorings!B13,"")</f>
+        <f>IF(D13="Sensor",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="D13" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B13),"",if(len(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E13" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B13),"",IF(LEN(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E13" s="45">
         <f>Moorings!C13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F13" s="63" t="str">
-        <f>if(D13="Mooring",Moorings!E13,"")</f>
+        <f>IF(D13="Mooring",Moorings!E13,"")</f>
         <v/>
       </c>
       <c r="G13" s="62"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="str">
         <f>Moorings!A14</f>
         <v>ATAPL-65244-820-0033</v>
       </c>
       <c r="B14" s="61" t="str">
-        <f>if(D14="Mooring",Moorings!B14,"")</f>
+        <f>IF(D14="Mooring",Moorings!B14,"")</f>
         <v>RS03ASHS-MJ03B</v>
       </c>
       <c r="C14" s="62" t="str">
-        <f>if(D14="Sensor",Moorings!B14,"")</f>
+        <f>IF(D14="Sensor",Moorings!B14,"")</f>
         <v/>
       </c>
       <c r="D14" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B14),"",if(len(Moorings!B14)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B14),"",IF(LEN(Moorings!B14)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>Moorings!C14</f>
         <v>SN0033</v>
       </c>
-      <c r="F14" s="63" t="str">
-        <f>if(D14="Mooring",Moorings!E14,"")</f>
-        <v>7/28/2014</v>
+      <c r="F14" s="63">
+        <f>IF(D14="Mooring",Moorings!E14,"")</f>
+        <v>41848</v>
       </c>
       <c r="G14" s="62"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="str">
         <f>Moorings!A15</f>
         <v>ATAPL-58333-00004</v>
       </c>
       <c r="B15" s="61" t="str">
-        <f>if(D15="Mooring",Moorings!B15,"")</f>
+        <f>IF(D15="Mooring",Moorings!B15,"")</f>
         <v/>
       </c>
       <c r="C15" s="61" t="str">
-        <f>if(D15="Sensor",Moorings!B15,"")</f>
+        <f>IF(D15="Sensor",Moorings!B15,"")</f>
         <v>RS03ASHS-MJ03B-00-OSMOIA301</v>
       </c>
       <c r="D15" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B15),"",if(len(Moorings!B15)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B15),"",IF(LEN(Moorings!B15)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="45">
         <f>Moorings!C15</f>
         <v>4</v>
       </c>
       <c r="F15" s="63" t="str">
-        <f>if(D15="Mooring",Moorings!E15,"")</f>
+        <f>IF(D15="Mooring",Moorings!E15,"")</f>
         <v/>
       </c>
       <c r="G15" s="62"/>
     </row>
-    <row r="16">
-      <c r="A16" s="61" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
         <f>Moorings!A16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B16" s="61" t="str">
-        <f>if(D16="Mooring",Moorings!B16,"")</f>
+        <f>IF(D16="Mooring",Moorings!B16,"")</f>
         <v/>
       </c>
       <c r="C16" s="62" t="str">
-        <f>if(D16="Sensor",Moorings!B16,"")</f>
+        <f>IF(D16="Sensor",Moorings!B16,"")</f>
         <v/>
       </c>
       <c r="D16" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B16),"",if(len(Moorings!B16)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E16" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B16),"",IF(LEN(Moorings!B16)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E16" s="45">
         <f>Moorings!C16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F16" s="63" t="str">
-        <f>if(D16="Mooring",Moorings!E16,"")</f>
+        <f>IF(D16="Mooring",Moorings!E16,"")</f>
         <v/>
       </c>
       <c r="G16" s="62"/>
     </row>
-    <row r="17">
-      <c r="A17" s="61" t="str">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
         <f>Moorings!A17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B17" s="61" t="str">
-        <f>if(D17="Mooring",Moorings!B17,"")</f>
+        <f>IF(D17="Mooring",Moorings!B17,"")</f>
         <v/>
       </c>
       <c r="C17" s="62" t="str">
-        <f>if(D17="Sensor",Moorings!B17,"")</f>
+        <f>IF(D17="Sensor",Moorings!B17,"")</f>
         <v/>
       </c>
       <c r="D17" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B17),"",if(len(Moorings!B17)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E17" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B17),"",IF(LEN(Moorings!B17)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E17" s="45">
         <f>Moorings!C17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F17" s="63" t="str">
-        <f>if(D17="Mooring",Moorings!E17,"")</f>
+        <f>IF(D17="Mooring",Moorings!E17,"")</f>
         <v/>
       </c>
       <c r="G17" s="62"/>
     </row>
-    <row r="18">
-      <c r="A18" s="61" t="str">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
         <f>Moorings!A18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B18" s="61" t="str">
-        <f>if(D18="Mooring",Moorings!B18,"")</f>
+        <f>IF(D18="Mooring",Moorings!B18,"")</f>
         <v/>
       </c>
       <c r="C18" s="62" t="str">
-        <f>if(D18="Sensor",Moorings!B18,"")</f>
+        <f>IF(D18="Sensor",Moorings!B18,"")</f>
         <v/>
       </c>
       <c r="D18" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B18),"",if(len(Moorings!B18)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E18" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B18),"",IF(LEN(Moorings!B18)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E18" s="45">
         <f>Moorings!C18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F18" s="63" t="str">
-        <f>if(D18="Mooring",Moorings!E18,"")</f>
+        <f>IF(D18="Mooring",Moorings!E18,"")</f>
         <v/>
       </c>
       <c r="G18" s="62"/>
     </row>
-    <row r="19">
-      <c r="A19" s="61" t="str">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="61">
         <f>Moorings!A19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B19" s="61" t="str">
-        <f>if(D19="Mooring",Moorings!B19,"")</f>
+        <f>IF(D19="Mooring",Moorings!B19,"")</f>
         <v/>
       </c>
       <c r="C19" s="62" t="str">
-        <f>if(D19="Sensor",Moorings!B19,"")</f>
+        <f>IF(D19="Sensor",Moorings!B19,"")</f>
         <v/>
       </c>
       <c r="D19" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B19),"",if(len(Moorings!B19)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E19" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B19),"",IF(LEN(Moorings!B19)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E19" s="45">
         <f>Moorings!C19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F19" s="63" t="str">
-        <f>if(D19="Mooring",Moorings!E19,"")</f>
+        <f>IF(D19="Mooring",Moorings!E19,"")</f>
         <v/>
       </c>
       <c r="G19" s="62"/>
     </row>
-    <row r="20">
-      <c r="A20" s="61" t="str">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="61">
         <f>Moorings!A20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B20" s="61" t="str">
-        <f>if(D20="Mooring",Moorings!B20,"")</f>
+        <f>IF(D20="Mooring",Moorings!B20,"")</f>
         <v/>
       </c>
       <c r="C20" s="62" t="str">
-        <f>if(D20="Sensor",Moorings!B20,"")</f>
+        <f>IF(D20="Sensor",Moorings!B20,"")</f>
         <v/>
       </c>
       <c r="D20" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B20),"",if(len(Moorings!B20)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E20" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B20),"",IF(LEN(Moorings!B20)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E20" s="45">
         <f>Moorings!C20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F20" s="63" t="str">
-        <f>if(D20="Mooring",Moorings!E20,"")</f>
+        <f>IF(D20="Mooring",Moorings!E20,"")</f>
         <v/>
       </c>
       <c r="G20" s="62"/>
     </row>
-    <row r="21">
-      <c r="A21" s="61" t="str">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="61">
         <f>Moorings!A21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B21" s="61" t="str">
-        <f>if(D21="Mooring",Moorings!B21,"")</f>
+        <f>IF(D21="Mooring",Moorings!B21,"")</f>
         <v/>
       </c>
       <c r="C21" s="62" t="str">
-        <f>if(D21="Sensor",Moorings!B21,"")</f>
+        <f>IF(D21="Sensor",Moorings!B21,"")</f>
         <v/>
       </c>
       <c r="D21" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B21),"",if(len(Moorings!B21)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E21" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B21),"",IF(LEN(Moorings!B21)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E21" s="45">
         <f>Moorings!C21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F21" s="63" t="str">
-        <f>if(D21="Mooring",Moorings!E21,"")</f>
+        <f>IF(D21="Mooring",Moorings!E21,"")</f>
         <v/>
       </c>
       <c r="G21" s="62"/>
     </row>
-    <row r="22">
-      <c r="A22" s="61" t="str">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="61">
         <f>Moorings!A22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B22" s="61" t="str">
-        <f>if(D22="Mooring",Moorings!B22,"")</f>
+        <f>IF(D22="Mooring",Moorings!B22,"")</f>
         <v/>
       </c>
       <c r="C22" s="62" t="str">
-        <f>if(D22="Sensor",Moorings!B22,"")</f>
+        <f>IF(D22="Sensor",Moorings!B22,"")</f>
         <v/>
       </c>
       <c r="D22" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B22),"",if(len(Moorings!B22)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E22" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B22),"",IF(LEN(Moorings!B22)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E22" s="45">
         <f>Moorings!C22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F22" s="63" t="str">
-        <f>if(D22="Mooring",Moorings!E22,"")</f>
+        <f>IF(D22="Mooring",Moorings!E22,"")</f>
         <v/>
       </c>
       <c r="G22" s="62"/>
     </row>
-    <row r="23">
-      <c r="A23" s="61" t="str">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="61">
         <f>Moorings!A23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B23" s="61" t="str">
-        <f>if(D23="Mooring",Moorings!B23,"")</f>
+        <f>IF(D23="Mooring",Moorings!B23,"")</f>
         <v/>
       </c>
       <c r="C23" s="62" t="str">
-        <f>if(D23="Sensor",Moorings!B23,"")</f>
+        <f>IF(D23="Sensor",Moorings!B23,"")</f>
         <v/>
       </c>
       <c r="D23" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B23),"",if(len(Moorings!B23)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E23" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B23),"",IF(LEN(Moorings!B23)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E23" s="45">
         <f>Moorings!C23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F23" s="63" t="str">
-        <f>if(D23="Mooring",Moorings!E23,"")</f>
+        <f>IF(D23="Mooring",Moorings!E23,"")</f>
         <v/>
       </c>
       <c r="G23" s="62"/>
     </row>
-    <row r="24">
-      <c r="A24" s="61" t="str">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="61">
         <f>Moorings!A24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B24" s="61" t="str">
-        <f>if(D24="Mooring",Moorings!B24,"")</f>
+        <f>IF(D24="Mooring",Moorings!B24,"")</f>
         <v/>
       </c>
       <c r="C24" s="62" t="str">
-        <f>if(D24="Sensor",Moorings!B24,"")</f>
+        <f>IF(D24="Sensor",Moorings!B24,"")</f>
         <v/>
       </c>
       <c r="D24" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B24),"",if(len(Moorings!B24)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E24" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B24),"",IF(LEN(Moorings!B24)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E24" s="45">
         <f>Moorings!C24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F24" s="63" t="str">
-        <f>if(D24="Mooring",Moorings!E24,"")</f>
+        <f>IF(D24="Mooring",Moorings!E24,"")</f>
         <v/>
       </c>
       <c r="G24" s="62"/>
     </row>
-    <row r="25">
-      <c r="A25" s="61" t="str">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="61">
         <f>Moorings!A25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B25" s="61" t="str">
-        <f>if(D25="Mooring",Moorings!B25,"")</f>
+        <f>IF(D25="Mooring",Moorings!B25,"")</f>
         <v/>
       </c>
       <c r="C25" s="62" t="str">
-        <f>if(D25="Sensor",Moorings!B25,"")</f>
+        <f>IF(D25="Sensor",Moorings!B25,"")</f>
         <v/>
       </c>
       <c r="D25" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B25),"",if(len(Moorings!B25)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E25" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B25),"",IF(LEN(Moorings!B25)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E25" s="45">
         <f>Moorings!C25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F25" s="63" t="str">
-        <f>if(D25="Mooring",Moorings!E25,"")</f>
+        <f>IF(D25="Mooring",Moorings!E25,"")</f>
         <v/>
       </c>
       <c r="G25" s="62"/>
     </row>
-    <row r="26">
-      <c r="A26" s="61" t="str">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="61">
         <f>Moorings!A26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B26" s="61" t="str">
-        <f>if(D26="Mooring",Moorings!B26,"")</f>
+        <f>IF(D26="Mooring",Moorings!B26,"")</f>
         <v/>
       </c>
       <c r="C26" s="62" t="str">
-        <f>if(D26="Sensor",Moorings!B26,"")</f>
+        <f>IF(D26="Sensor",Moorings!B26,"")</f>
         <v/>
       </c>
       <c r="D26" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B26),"",if(len(Moorings!B26)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E26" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B26),"",IF(LEN(Moorings!B26)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E26" s="45">
         <f>Moorings!C26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F26" s="63" t="str">
-        <f>if(D26="Mooring",Moorings!E26,"")</f>
+        <f>IF(D26="Mooring",Moorings!E26,"")</f>
         <v/>
       </c>
       <c r="G26" s="62"/>
     </row>
-    <row r="27">
-      <c r="A27" s="61" t="str">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="61">
         <f>Moorings!A27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B27" s="61" t="str">
-        <f>if(D27="Mooring",Moorings!B27,"")</f>
+        <f>IF(D27="Mooring",Moorings!B27,"")</f>
         <v/>
       </c>
       <c r="C27" s="62" t="str">
-        <f>if(D27="Sensor",Moorings!B27,"")</f>
+        <f>IF(D27="Sensor",Moorings!B27,"")</f>
         <v/>
       </c>
       <c r="D27" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B27),"",if(len(Moorings!B27)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E27" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B27),"",IF(LEN(Moorings!B27)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E27" s="45">
         <f>Moorings!C27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F27" s="63" t="str">
-        <f>if(D27="Mooring",Moorings!E27,"")</f>
+        <f>IF(D27="Mooring",Moorings!E27,"")</f>
         <v/>
       </c>
       <c r="G27" s="62"/>
     </row>
-    <row r="28">
-      <c r="A28" s="61" t="str">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="61">
         <f>Moorings!A28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B28" s="61" t="str">
-        <f>if(D28="Mooring",Moorings!B28,"")</f>
+        <f>IF(D28="Mooring",Moorings!B28,"")</f>
         <v/>
       </c>
       <c r="C28" s="62" t="str">
-        <f>if(D28="Sensor",Moorings!B28,"")</f>
+        <f>IF(D28="Sensor",Moorings!B28,"")</f>
         <v/>
       </c>
       <c r="D28" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B28),"",if(len(Moorings!B28)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E28" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B28),"",IF(LEN(Moorings!B28)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E28" s="45">
         <f>Moorings!C28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F28" s="63" t="str">
-        <f>if(D28="Mooring",Moorings!E28,"")</f>
+        <f>IF(D28="Mooring",Moorings!E28,"")</f>
         <v/>
       </c>
       <c r="G28" s="62"/>
     </row>
-    <row r="29">
-      <c r="A29" s="61" t="str">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="61">
         <f>Moorings!A29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B29" s="61" t="str">
-        <f>if(D29="Mooring",Moorings!B29,"")</f>
+        <f>IF(D29="Mooring",Moorings!B29,"")</f>
         <v/>
       </c>
       <c r="C29" s="62" t="str">
-        <f>if(D29="Sensor",Moorings!B29,"")</f>
+        <f>IF(D29="Sensor",Moorings!B29,"")</f>
         <v/>
       </c>
       <c r="D29" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B29),"",if(len(Moorings!B29)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E29" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B29),"",IF(LEN(Moorings!B29)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E29" s="45">
         <f>Moorings!C29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F29" s="63" t="str">
-        <f>if(D29="Mooring",Moorings!E29,"")</f>
+        <f>IF(D29="Mooring",Moorings!E29,"")</f>
         <v/>
       </c>
       <c r="G29" s="62"/>
     </row>
-    <row r="30">
-      <c r="A30" s="61" t="str">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="61">
         <f>Moorings!A30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B30" s="61" t="str">
-        <f>if(D30="Mooring",Moorings!B30,"")</f>
+        <f>IF(D30="Mooring",Moorings!B30,"")</f>
         <v/>
       </c>
       <c r="C30" s="62" t="str">
-        <f>if(D30="Sensor",Moorings!B30,"")</f>
+        <f>IF(D30="Sensor",Moorings!B30,"")</f>
         <v/>
       </c>
       <c r="D30" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B30),"",if(len(Moorings!B30)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E30" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B30),"",IF(LEN(Moorings!B30)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E30" s="45">
         <f>Moorings!C30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F30" s="63" t="str">
-        <f>if(D30="Mooring",Moorings!E30,"")</f>
+        <f>IF(D30="Mooring",Moorings!E30,"")</f>
         <v/>
       </c>
       <c r="G30" s="62"/>
     </row>
-    <row r="31">
-      <c r="A31" s="61" t="str">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="61">
         <f>Moorings!A31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B31" s="61" t="str">
-        <f>if(D31="Mooring",Moorings!B31,"")</f>
+        <f>IF(D31="Mooring",Moorings!B31,"")</f>
         <v/>
       </c>
       <c r="C31" s="62" t="str">
-        <f>if(D31="Sensor",Moorings!B31,"")</f>
+        <f>IF(D31="Sensor",Moorings!B31,"")</f>
         <v/>
       </c>
       <c r="D31" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B31),"",if(len(Moorings!B31)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E31" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B31),"",IF(LEN(Moorings!B31)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E31" s="45">
         <f>Moorings!C31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F31" s="63" t="str">
-        <f>if(D31="Mooring",Moorings!E31,"")</f>
+        <f>IF(D31="Mooring",Moorings!E31,"")</f>
         <v/>
       </c>
       <c r="G31" s="62"/>
     </row>
-    <row r="32">
-      <c r="A32" s="61" t="str">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="61">
         <f>Moorings!A32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B32" s="61" t="str">
-        <f>if(D32="Mooring",Moorings!B32,"")</f>
+        <f>IF(D32="Mooring",Moorings!B32,"")</f>
         <v/>
       </c>
       <c r="C32" s="62" t="str">
-        <f>if(D32="Sensor",Moorings!B32,"")</f>
+        <f>IF(D32="Sensor",Moorings!B32,"")</f>
         <v/>
       </c>
       <c r="D32" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B32),"",if(len(Moorings!B32)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E32" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B32),"",IF(LEN(Moorings!B32)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E32" s="45">
         <f>Moorings!C32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F32" s="63" t="str">
-        <f>if(D32="Mooring",Moorings!E32,"")</f>
+        <f>IF(D32="Mooring",Moorings!E32,"")</f>
         <v/>
       </c>
       <c r="G32" s="62"/>
     </row>
-    <row r="33">
-      <c r="A33" s="61" t="str">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="61">
         <f>Moorings!A33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B33" s="61" t="str">
-        <f>if(D33="Mooring",Moorings!B33,"")</f>
+        <f>IF(D33="Mooring",Moorings!B33,"")</f>
         <v/>
       </c>
       <c r="C33" s="62" t="str">
-        <f>if(D33="Sensor",Moorings!B33,"")</f>
+        <f>IF(D33="Sensor",Moorings!B33,"")</f>
         <v/>
       </c>
       <c r="D33" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B33),"",if(len(Moorings!B33)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E33" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B33),"",IF(LEN(Moorings!B33)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E33" s="45">
         <f>Moorings!C33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F33" s="63" t="str">
-        <f>if(D33="Mooring",Moorings!E33,"")</f>
+        <f>IF(D33="Mooring",Moorings!E33,"")</f>
         <v/>
       </c>
       <c r="G33" s="62"/>
     </row>
-    <row r="34">
-      <c r="A34" s="61" t="str">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="61">
         <f>Moorings!A34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B34" s="61" t="str">
-        <f>if(D34="Mooring",Moorings!B34,"")</f>
+        <f>IF(D34="Mooring",Moorings!B34,"")</f>
         <v/>
       </c>
       <c r="C34" s="62" t="str">
-        <f>if(D34="Sensor",Moorings!B34,"")</f>
+        <f>IF(D34="Sensor",Moorings!B34,"")</f>
         <v/>
       </c>
       <c r="D34" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B34),"",if(len(Moorings!B34)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E34" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B34),"",IF(LEN(Moorings!B34)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E34" s="45">
         <f>Moorings!C34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F34" s="63" t="str">
-        <f>if(D34="Mooring",Moorings!E34,"")</f>
+        <f>IF(D34="Mooring",Moorings!E34,"")</f>
         <v/>
       </c>
       <c r="G34" s="62"/>
     </row>
-    <row r="35">
-      <c r="A35" s="61" t="str">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="61">
         <f>Moorings!A35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B35" s="61" t="str">
-        <f>if(D35="Mooring",Moorings!B35,"")</f>
+        <f>IF(D35="Mooring",Moorings!B35,"")</f>
         <v/>
       </c>
       <c r="C35" s="62" t="str">
-        <f>if(D35="Sensor",Moorings!B35,"")</f>
+        <f>IF(D35="Sensor",Moorings!B35,"")</f>
         <v/>
       </c>
       <c r="D35" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B35),"",if(len(Moorings!B35)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E35" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B35),"",IF(LEN(Moorings!B35)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E35" s="45">
         <f>Moorings!C35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F35" s="63" t="str">
-        <f>if(D35="Mooring",Moorings!E35,"")</f>
+        <f>IF(D35="Mooring",Moorings!E35,"")</f>
         <v/>
       </c>
       <c r="G35" s="62"/>
     </row>
-    <row r="36">
-      <c r="A36" s="61" t="str">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="61">
         <f>Moorings!A36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B36" s="61" t="str">
-        <f>if(D36="Mooring",Moorings!B36,"")</f>
+        <f>IF(D36="Mooring",Moorings!B36,"")</f>
         <v/>
       </c>
       <c r="C36" s="62" t="str">
-        <f>if(D36="Sensor",Moorings!B36,"")</f>
+        <f>IF(D36="Sensor",Moorings!B36,"")</f>
         <v/>
       </c>
       <c r="D36" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B36),"",if(len(Moorings!B36)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E36" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B36),"",IF(LEN(Moorings!B36)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E36" s="45">
         <f>Moorings!C36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F36" s="63" t="str">
-        <f>if(D36="Mooring",Moorings!E36,"")</f>
+        <f>IF(D36="Mooring",Moorings!E36,"")</f>
         <v/>
       </c>
       <c r="G36" s="62"/>
     </row>
-    <row r="37">
-      <c r="A37" s="61" t="str">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="61">
         <f>Moorings!A37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B37" s="61" t="str">
-        <f>if(D37="Mooring",Moorings!B37,"")</f>
+        <f>IF(D37="Mooring",Moorings!B37,"")</f>
         <v/>
       </c>
       <c r="C37" s="62" t="str">
-        <f>if(D37="Sensor",Moorings!B37,"")</f>
+        <f>IF(D37="Sensor",Moorings!B37,"")</f>
         <v/>
       </c>
       <c r="D37" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B37),"",if(len(Moorings!B37)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E37" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B37),"",IF(LEN(Moorings!B37)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E37" s="45">
         <f>Moorings!C37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F37" s="63" t="str">
-        <f>if(D37="Mooring",Moorings!E37,"")</f>
+        <f>IF(D37="Mooring",Moorings!E37,"")</f>
         <v/>
       </c>
       <c r="G37" s="62"/>
     </row>
-    <row r="38">
-      <c r="A38" s="61" t="str">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="61">
         <f>Moorings!A38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B38" s="61" t="str">
-        <f>if(D38="Mooring",Moorings!B38,"")</f>
+        <f>IF(D38="Mooring",Moorings!B38,"")</f>
         <v/>
       </c>
       <c r="C38" s="62" t="str">
-        <f>if(D38="Sensor",Moorings!B38,"")</f>
+        <f>IF(D38="Sensor",Moorings!B38,"")</f>
         <v/>
       </c>
       <c r="D38" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B38),"",if(len(Moorings!B38)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E38" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B38),"",IF(LEN(Moorings!B38)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E38" s="45">
         <f>Moorings!C38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F38" s="63" t="str">
-        <f>if(D38="Mooring",Moorings!E38,"")</f>
+        <f>IF(D38="Mooring",Moorings!E38,"")</f>
         <v/>
       </c>
       <c r="G38" s="62"/>
     </row>
-    <row r="39">
-      <c r="A39" s="61" t="str">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="61">
         <f>Moorings!A39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B39" s="61" t="str">
-        <f>if(D39="Mooring",Moorings!B39,"")</f>
+        <f>IF(D39="Mooring",Moorings!B39,"")</f>
         <v/>
       </c>
       <c r="C39" s="62" t="str">
-        <f>if(D39="Sensor",Moorings!B39,"")</f>
+        <f>IF(D39="Sensor",Moorings!B39,"")</f>
         <v/>
       </c>
       <c r="D39" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B39),"",if(len(Moorings!B39)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E39" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B39),"",IF(LEN(Moorings!B39)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E39" s="45">
         <f>Moorings!C39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F39" s="63" t="str">
-        <f>if(D39="Mooring",Moorings!E39,"")</f>
+        <f>IF(D39="Mooring",Moorings!E39,"")</f>
         <v/>
       </c>
       <c r="G39" s="62"/>
     </row>
-    <row r="40">
-      <c r="A40" s="61" t="str">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="61">
         <f>Moorings!A40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B40" s="61" t="str">
-        <f>if(D40="Mooring",Moorings!B40,"")</f>
+        <f>IF(D40="Mooring",Moorings!B40,"")</f>
         <v/>
       </c>
       <c r="C40" s="62" t="str">
-        <f>if(D40="Sensor",Moorings!B40,"")</f>
+        <f>IF(D40="Sensor",Moorings!B40,"")</f>
         <v/>
       </c>
       <c r="D40" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B40),"",if(len(Moorings!B40)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E40" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B40),"",IF(LEN(Moorings!B40)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E40" s="45">
         <f>Moorings!C40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F40" s="63" t="str">
-        <f>if(D40="Mooring",Moorings!E40,"")</f>
+        <f>IF(D40="Mooring",Moorings!E40,"")</f>
         <v/>
       </c>
       <c r="G40" s="62"/>
     </row>
-    <row r="41">
-      <c r="A41" s="61" t="str">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="61">
         <f>Moorings!A41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B41" s="61" t="str">
-        <f>if(D41="Mooring",Moorings!B41,"")</f>
+        <f>IF(D41="Mooring",Moorings!B41,"")</f>
         <v/>
       </c>
       <c r="C41" s="62" t="str">
-        <f>if(D41="Sensor",Moorings!B41,"")</f>
+        <f>IF(D41="Sensor",Moorings!B41,"")</f>
         <v/>
       </c>
       <c r="D41" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B41),"",if(len(Moorings!B41)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E41" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B41),"",IF(LEN(Moorings!B41)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E41" s="45">
         <f>Moorings!C41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F41" s="63" t="str">
-        <f>if(D41="Mooring",Moorings!E41,"")</f>
+        <f>IF(D41="Mooring",Moorings!E41,"")</f>
         <v/>
       </c>
       <c r="G41" s="62"/>
     </row>
-    <row r="42">
-      <c r="A42" s="61" t="str">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="61">
         <f>Moorings!A42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B42" s="61" t="str">
-        <f>if(D42="Mooring",Moorings!B42,"")</f>
+        <f>IF(D42="Mooring",Moorings!B42,"")</f>
         <v/>
       </c>
       <c r="C42" s="62" t="str">
-        <f>if(D42="Sensor",Moorings!B42,"")</f>
+        <f>IF(D42="Sensor",Moorings!B42,"")</f>
         <v/>
       </c>
       <c r="D42" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B42),"",if(len(Moorings!B42)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E42" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B42),"",IF(LEN(Moorings!B42)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E42" s="45">
         <f>Moorings!C42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F42" s="63" t="str">
-        <f>if(D42="Mooring",Moorings!E42,"")</f>
+        <f>IF(D42="Mooring",Moorings!E42,"")</f>
         <v/>
       </c>
       <c r="G42" s="62"/>
     </row>
-    <row r="43">
-      <c r="A43" s="61" t="str">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="61">
         <f>Moorings!A43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B43" s="61" t="str">
-        <f>if(D43="Mooring",Moorings!B43,"")</f>
+        <f>IF(D43="Mooring",Moorings!B43,"")</f>
         <v/>
       </c>
       <c r="C43" s="62" t="str">
-        <f>if(D43="Sensor",Moorings!B43,"")</f>
+        <f>IF(D43="Sensor",Moorings!B43,"")</f>
         <v/>
       </c>
       <c r="D43" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B43),"",if(len(Moorings!B43)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E43" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B43),"",IF(LEN(Moorings!B43)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E43" s="45">
         <f>Moorings!C43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F43" s="63" t="str">
-        <f>if(D43="Mooring",Moorings!E43,"")</f>
+        <f>IF(D43="Mooring",Moorings!E43,"")</f>
         <v/>
       </c>
       <c r="G43" s="62"/>
     </row>
-    <row r="44">
-      <c r="A44" s="61" t="str">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="61">
         <f>Moorings!A44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B44" s="61" t="str">
-        <f>if(D44="Mooring",Moorings!B44,"")</f>
+        <f>IF(D44="Mooring",Moorings!B44,"")</f>
         <v/>
       </c>
       <c r="C44" s="62" t="str">
-        <f>if(D44="Sensor",Moorings!B44,"")</f>
+        <f>IF(D44="Sensor",Moorings!B44,"")</f>
         <v/>
       </c>
       <c r="D44" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B44),"",if(len(Moorings!B44)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E44" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B44),"",IF(LEN(Moorings!B44)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E44" s="45">
         <f>Moorings!C44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F44" s="63" t="str">
-        <f>if(D44="Mooring",Moorings!E44,"")</f>
+        <f>IF(D44="Mooring",Moorings!E44,"")</f>
         <v/>
       </c>
       <c r="G44" s="62"/>
     </row>
-    <row r="45">
-      <c r="A45" s="61" t="str">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="61">
         <f>Moorings!A45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B45" s="61" t="str">
-        <f>if(D45="Mooring",Moorings!B45,"")</f>
+        <f>IF(D45="Mooring",Moorings!B45,"")</f>
         <v/>
       </c>
       <c r="C45" s="62" t="str">
-        <f>if(D45="Sensor",Moorings!B45,"")</f>
+        <f>IF(D45="Sensor",Moorings!B45,"")</f>
         <v/>
       </c>
       <c r="D45" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B45),"",if(len(Moorings!B45)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E45" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B45),"",IF(LEN(Moorings!B45)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E45" s="45">
         <f>Moorings!C45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F45" s="63" t="str">
-        <f>if(D45="Mooring",Moorings!E45,"")</f>
+        <f>IF(D45="Mooring",Moorings!E45,"")</f>
         <v/>
       </c>
       <c r="G45" s="62"/>
     </row>
-    <row r="46">
-      <c r="A46" s="61" t="str">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="61">
         <f>Moorings!A46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B46" s="61" t="str">
-        <f>if(D46="Mooring",Moorings!B46,"")</f>
+        <f>IF(D46="Mooring",Moorings!B46,"")</f>
         <v/>
       </c>
       <c r="C46" s="62" t="str">
-        <f>if(D46="Sensor",Moorings!B46,"")</f>
+        <f>IF(D46="Sensor",Moorings!B46,"")</f>
         <v/>
       </c>
       <c r="D46" s="46" t="str">
-        <f>if(ISBLANK(Moorings!B46),"",if(len(Moorings!B46)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E46" s="45" t="str">
+        <f>IF(ISBLANK(Moorings!B46),"",IF(LEN(Moorings!B46)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E46" s="45">
         <f>Moorings!C46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F46" s="63" t="str">
-        <f>if(D46="Mooring",Moorings!E46,"")</f>
+        <f>IF(D46="Mooring",Moorings!E46,"")</f>
         <v/>
       </c>
       <c r="G46" s="62"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.43"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="11.43"/>
-    <col customWidth="1" min="5" max="5" width="10.29"/>
-    <col customWidth="1" min="6" max="6" width="4.43"/>
-    <col customWidth="1" min="7" max="7" width="5.71"/>
-    <col customWidth="1" min="8" max="8" width="16.0"/>
-    <col customWidth="1" min="9" max="9" width="19.43"/>
-    <col customWidth="1" min="10" max="10" width="11.0"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
         <v>Ref Des</v>
       </c>
       <c r="B1" s="65" t="s">
@@ -3614,7 +4025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3636,7 +4047,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3656,7 +4067,7 @@
       <c r="I3" s="75"/>
       <c r="J3" s="70"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3676,7 +4087,7 @@
       <c r="I4" s="75"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3696,7 +4107,7 @@
       <c r="I5" s="72"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3718,7 +4129,7 @@
       <c r="I6" s="75"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3738,7 +4149,7 @@
       <c r="I7" s="75"/>
       <c r="J7" s="71"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3758,7 +4169,7 @@
       <c r="I8" s="72"/>
       <c r="J8" s="71"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="68"/>
       <c r="C9" s="69"/>
       <c r="D9" s="70"/>
@@ -3769,7 +4180,7 @@
       <c r="I9" s="75"/>
       <c r="J9" s="71"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
       <c r="D10" s="70"/>
@@ -3780,7 +4191,7 @@
       <c r="I10" s="75"/>
       <c r="J10" s="71"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68"/>
       <c r="C11" s="76"/>
       <c r="D11" s="71"/>
@@ -3791,7 +4202,7 @@
       <c r="I11" s="72"/>
       <c r="J11" s="71"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="68"/>
       <c r="C12" s="69"/>
       <c r="D12" s="70"/>
@@ -3804,7 +4215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="68"/>
       <c r="C13" s="76"/>
       <c r="D13" s="70"/>
@@ -3818,7 +4229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="68"/>
       <c r="C14" s="69"/>
       <c r="D14" s="70"/>
@@ -3832,7 +4243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="68"/>
       <c r="C15" s="69"/>
       <c r="D15" s="70"/>
@@ -3846,7 +4257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70"/>
@@ -3860,7 +4271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
@@ -3874,7 +4285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68"/>
       <c r="C18" s="69"/>
       <c r="D18" s="70"/>
@@ -3888,7 +4299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
       <c r="D19" s="70"/>
@@ -3902,7 +4313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="68"/>
       <c r="C20" s="69"/>
       <c r="D20" s="70"/>
@@ -3916,7 +4327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="68"/>
       <c r="C21" s="69"/>
       <c r="D21" s="70"/>
@@ -3930,7 +4341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="76"/>
       <c r="D22" s="71"/>
       <c r="E22" s="71"/>
@@ -3943,17 +4354,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="78" t="str">
-        <f>concatenate("'",countif(C2:C22,"yes"),"/",counta(C2:C22))</f>
+        <f>CONCATENATE("'",COUNTIF(C2:C22,"yes"),"/",COUNTA(C2:C22))</f>
         <v>'6/7</v>
       </c>
       <c r="D23" s="79" t="str">
-        <f t="shared" ref="D23:E23" si="1">concatenate("'",countif(D2:D22,"1/*")+countif(D2:D22,"2/*")*2,"/",countif(D2:D22,"*/1")+countif(D2:D22,"*/2")*2)</f>
+        <f t="shared" ref="D23:E23" si="0">CONCATENATE("'",COUNTIF(D2:D22,"1/*")+COUNTIF(D2:D22,"2/*")*2,"/",COUNTIF(D2:D22,"*/1")+COUNTIF(D2:D22,"*/2")*2)</f>
         <v>'10/11</v>
       </c>
       <c r="E23" s="79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'0/0</v>
       </c>
       <c r="F23" s="71"/>
@@ -3965,7 +4376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="76"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -3978,7 +4389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="76"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
@@ -3992,7 +4403,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>